--- a/src/main/resources/TestCaseData/v1.xlsx
+++ b/src/main/resources/TestCaseData/v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD68647-0DA0-4660-93DF-008C0CDB3248}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4046F5-B00A-4EE3-B6B5-8F90FF169221}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,42 +42,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>czh_980405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>da4678135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lemonban.com/user/ajax/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lemonban.com/user/ajax/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>预期结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>czh_980405</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>da4678135</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lemonban.com/user/ajax/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>登录</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>false</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lemonban.com/user/ajax/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,170 +422,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="14.375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="5" width="40.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1">
         <v>46465454</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
         <v>4648796123</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1">
         <v>17639617036</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <v>45464634</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1">
         <v>17639617036</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1">
         <v>99999</v>
       </c>
-      <c r="E6" s="1">
+      <c r="G6" s="1">
         <v>6786875678</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1">
+      <c r="F7" s="1">
         <v>8421313</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7" s="1">
         <v>3123131</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{9C2B9975-D172-4D19-89CE-3FDDF4ECD7B1}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{09F6CB51-51A6-4BE8-A767-12E41859CD57}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{74D43917-0F0C-4E8F-B5E2-C1566260D644}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{1C10A264-63B1-45A6-A07D-7CDF417FB2BE}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{69508A99-F072-4F89-B860-D73E5BCC09A8}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{045980D7-2DC0-44FD-B151-9303186C18A1}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{9C2B9975-D172-4D19-89CE-3FDDF4ECD7B1}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{09F6CB51-51A6-4BE8-A767-12E41859CD57}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{74D43917-0F0C-4E8F-B5E2-C1566260D644}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{1C10A264-63B1-45A6-A07D-7CDF417FB2BE}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{69508A99-F072-4F89-B860-D73E5BCC09A8}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{045980D7-2DC0-44FD-B151-9303186C18A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
